--- a/test4.xlsx
+++ b/test4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\surname-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CF65E0-4E45-49E1-B820-1C4016B3F7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07732993-0509-4FE5-BA6B-B671F52914C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DE5A86D5-A28B-4C7A-9F7F-A3BC5CDF65D4}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B3212B-B066-4210-BC5F-434369FA6753}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +413,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
